--- a/stock_historical_data/3mo/KSOLVES.NS.xlsx
+++ b/stock_historical_data/3mo/KSOLVES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,6 +523,11 @@
           <t>two_line_structure</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -576,6 +581,9 @@
       <c r="Q2" t="n">
         <v>0</v>
       </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -629,6 +637,9 @@
       <c r="Q3" t="n">
         <v>0</v>
       </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -682,6 +693,9 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -735,6 +749,9 @@
       <c r="Q5" t="n">
         <v>0</v>
       </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -788,6 +805,9 @@
       <c r="Q6" t="n">
         <v>0</v>
       </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -841,6 +861,9 @@
       <c r="Q7" t="n">
         <v>0</v>
       </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -894,6 +917,9 @@
       <c r="Q8" t="n">
         <v>0</v>
       </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -947,6 +973,9 @@
       <c r="Q9" t="n">
         <v>0</v>
       </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1000,6 +1029,9 @@
       <c r="Q10" t="n">
         <v>0</v>
       </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1053,6 +1085,9 @@
       <c r="Q11" t="n">
         <v>0</v>
       </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1106,6 +1141,9 @@
       <c r="Q12" t="n">
         <v>0</v>
       </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1159,6 +1197,9 @@
       <c r="Q13" t="n">
         <v>0</v>
       </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1212,6 +1253,9 @@
       <c r="Q14" t="n">
         <v>0</v>
       </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1257,12 +1301,15 @@
         <v>44</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1318,6 +1365,9 @@
       <c r="Q16" t="n">
         <v>0</v>
       </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1371,6 +1421,113 @@
       <c r="Q17" t="n">
         <v>0</v>
       </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1080.980994381021</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1088.914799844368</v>
+      </c>
+      <c r="D18" t="n">
+        <v>932.2221419432663</v>
+      </c>
+      <c r="E18" t="n">
+        <v>944.1724243164062</v>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="n">
+        <v>1901886</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I18" t="n">
+        <v>8</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>31</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B19" t="n">
+        <v>971</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1071.349975585938</v>
+      </c>
+      <c r="D19" t="n">
+        <v>944.0499877929688</v>
+      </c>
+      <c r="E19" t="n">
+        <v>963.7999877929688</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="n">
+        <v>1192559</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I19" t="n">
+        <v>11</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>44</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
